--- a/src/test/resources/Muhtesem e-tablo.xlsx
+++ b/src/test/resources/Muhtesem e-tablo.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Sayfa3" r:id="rId5" sheetId="2"/>
-    <sheet name="Sayfa2" r:id="rId6" sheetId="3"/>
+    <sheet name="Sayfa3" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Sayfa2" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="First test manually" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t xml:space="preserve">StudentName</t>
   </si>
@@ -75,31 +76,61 @@
     <t xml:space="preserve">El</t>
   </si>
   <si>
-    <t>xxxxxx</t>
-  </si>
-  <si>
-    <t>Ercan</t>
-  </si>
-  <si>
-    <t>Zafer</t>
-  </si>
-  <si>
-    <t>Mahmut</t>
-  </si>
-  <si>
-    <t>Ali</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
-    <t>soyad</t>
-  </si>
-  <si>
-    <t>Kimlik No</t>
-  </si>
-  <si>
-    <t>Yas</t>
+    <t xml:space="preserve">Ercan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zafer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahmut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxxxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soyad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimlik No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yas</t>
+  </si>
+  <si>
+    <t>Sauce Labs Onesie</t>
+  </si>
+  <si>
+    <t>$7.99</t>
+  </si>
+  <si>
+    <t>Sauce Labs Bike Light</t>
+  </si>
+  <si>
+    <t>$9.99</t>
+  </si>
+  <si>
+    <t>Sauce Labs Bolt T-Shirt</t>
+  </si>
+  <si>
+    <t>$15.99</t>
+  </si>
+  <si>
+    <t>Test.allTheThings() T-Shirt (Red)</t>
+  </si>
+  <si>
+    <t>Sauce Labs Backpack</t>
+  </si>
+  <si>
+    <t>$29.99</t>
+  </si>
+  <si>
+    <t>Sauce Labs Fleece Jacket</t>
+  </si>
+  <si>
+    <t>$49.99</t>
   </si>
 </sst>
 </file>
@@ -386,7 +417,7 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -496,55 +527,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:H2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="2">
-      <c r="B2" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>25</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
